--- a/data/trans_dic/P29_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no consume diariamente raciones de verdura u hortalizas al día</t>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>27,85%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>49,65%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>21,32%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,21%</t>
+          <t>21,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>28,7%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>26,45%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>27,19%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>43,03%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>33,43%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,76; 36,67</t>
+          <t>28,06; 37,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,38; 33,77</t>
+          <t>26,2; 33,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,01; 35,57</t>
+          <t>28,21; 36,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,74; 53,54</t>
+          <t>23,28; 32,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,24; 24,76</t>
+          <t>45,56; 53,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 25,15</t>
+          <t>34,21; 42,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,31; 25,18</t>
+          <t>18,15; 24,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,01; 40,08</t>
+          <t>18,21; 24,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,6; 29,25</t>
+          <t>19,88; 25,66</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,25; 28,55</t>
+          <t>17,27; 24,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,23; 29,09</t>
+          <t>33,04; 40,49</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>40,47; 45,79</t>
+          <t>25,25; 31,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>23,67; 29,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 27,67</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>24,74; 29,71</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>21,1; 26,56</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>40,32; 45,7</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>31,01; 36,07</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>38,43%</t>
+          <t>30,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,69%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>24,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>25,72%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>37,97%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>26,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>28,36%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>27,21%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>30,35%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>28,2%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
         <is>
           <t>38,21%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>26,97%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,44; 40,17</t>
+          <t>29,44; 40,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,76; 37,3</t>
+          <t>27,57; 36,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,77; 38,35</t>
+          <t>29,11; 38,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,39; 45,57</t>
+          <t>25,79; 36,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,9; 23,46</t>
+          <t>31,56; 45,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>21,35; 28,2</t>
+          <t>24,46; 36,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,41; 31,19</t>
+          <t>15,92; 23,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,34; 44,67</t>
+          <t>21,2; 28,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,79; 30,21</t>
+          <t>23,46; 31,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,69; 31,33</t>
+          <t>21,58; 31,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,5; 33,29</t>
+          <t>31,91; 45,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>33,61; 43,14</t>
+          <t>18,1; 30,33</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 30,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>25,81; 31,2</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>27,54; 33,63</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>24,7; 32,07</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 42,86</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 31,36</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>37,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>42,31%</t>
+          <t>42,4%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>27,01%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>20,2%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>28,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>21,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>27,86%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>32,1%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>26,1%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>33,55%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>34,83%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>33,31%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>29,49%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>23,06; 42,57</t>
+          <t>19,28; 36,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29,57; 46,66</t>
+          <t>28,44; 46,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,72; 54,92</t>
+          <t>33,17; 51,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>18,07; 37,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>14,6; 27,59</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,05; 36,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,08; 34,93</t>
+          <t>15,17; 28,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>22,63; 36,5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 35,09</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23,29; 41,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>20,66; 33,25</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>28,84; 40,03</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>29,06; 41,02</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 30,17</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>27,43; 38,63</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>28,95; 41,23</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>22,91; 36,86</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>28,89%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>46,96%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>20,52%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>23,75%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>29,09%</t>
+          <t>36,96%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>27,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>29,37%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26,26%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>41,93%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31,94%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,6; 36,13</t>
+          <t>29,5; 35,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,27; 34,69</t>
+          <t>29,05; 34,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,05; 36,79</t>
+          <t>31,18; 37,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>43,42; 50,47</t>
+          <t>25,72; 32,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,26; 22,94</t>
+          <t>43,62; 50,44</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,54; 26,16</t>
+          <t>33,04; 40,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,25; 27,14</t>
+          <t>18,54; 23,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,76; 40,25</t>
+          <t>21,32; 25,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,69; 28,71</t>
+          <t>22,66; 26,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,89; 29,28</t>
+          <t>21,39; 26,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,34; 31,18</t>
+          <t>33,63; 40,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>39,44; 44,22</t>
+          <t>24,74; 30,42</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,57; 28,57</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>25,88; 29,12</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>27,65; 31,34</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 28,36</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>39,59; 44,22</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>29,75; 34,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no consume diariamente raciones de verdura u hortalizas (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>380.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>413.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>489.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>528896</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>491515</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>527930</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>451705</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>112906</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>86938</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>382404</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>384912</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>408828</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>365493</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>87067</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>67336</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>911299</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>876427</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>936758</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>817198</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>199973</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>154274</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>460756; 610604</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>429834; 550163</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>463542; 592577</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>377521; 525790</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>103611; 121415</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>77595; 96336</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>327283; 437158</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>331465; 444023</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>358349; 462569</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>309893; 431654</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>78416; 96100</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>59238; 74783</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>815592; 1019973</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>791824; 957797</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>852413; 1023791</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>720869; 907283</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>187401; 212415</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>143100; 166471</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>478825</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>436697</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>464313</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>421405</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>27644</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22042</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>271971</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>335925</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>372354</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>356942</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>24745</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15356</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>750796</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>772622</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>836667</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>778347</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>52389</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>37398</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>404514; 556425</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>377143; 500246</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>400416; 534951</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>354099; 502651</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>22702; 32476</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17755; 26339</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>220547; 329980</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>290044; 386671</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>323861; 431795</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>299424; 434714</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>20793; 29375</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>11967; 20050</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>669753; 846143</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>706124; 853518</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>759017; 927073</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>681841; 885265</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>46400; 58755</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>31443; 43492</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>117545</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>157792</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>176973</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>114216</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>88197</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>118935</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>114749</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>128659</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>205742</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>276726</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>291722</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>242875</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>81525; 155995</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>120242; 195904</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>138456; 216536</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>76421; 156450</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>62468; 116747</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>92324; 148882</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>85637; 144518</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>93354; 167542</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>163582; 251842</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>227849; 320923</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>240079; 341946</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>188707; 303595</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>424.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>369.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>636.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>803.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>850.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>574.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1125266</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1086005</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1169216</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>987326</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>140550</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>108980</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>742571</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>839771</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>895931</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>851093</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>111811</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>82692</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1867837</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1925776</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2065147</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1838419</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>252361</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>191672</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1014664; 1233955</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>996756; 1173395</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1071609; 1276395</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>878952; 1101258</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>130553; 150967</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>98906; 120053</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>667707; 838423</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>766904; 920402</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>814535; 969549</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>766556; 962220</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>101734; 121749</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>74398; 91496</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1729770; 2011448</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1818936; 2046546</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1944430; 2203745</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1687432; 1985000</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>238256; 266114</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>178528; 205057</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
